--- a/14_Culture Secrets/1_Comptabilté CS.xlsx
+++ b/14_Culture Secrets/1_Comptabilté CS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>3h</t>
+  </si>
+  <si>
+    <t>U-First</t>
+  </si>
+  <si>
+    <t>Oui (04/11/2014)</t>
   </si>
 </sst>
 </file>
@@ -95,12 +101,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -228,7 +240,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -253,6 +265,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -714,7 +727,7 @@
   <dimension ref="B5:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -763,7 +776,9 @@
       <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="12" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="10">
@@ -775,7 +790,9 @@
       <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="12" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="10">
@@ -787,7 +804,9 @@
       <c r="D9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="12" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="10">
@@ -799,7 +818,9 @@
       <c r="D10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="12" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="10">
@@ -811,18 +832,32 @@
       <c r="D11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="12" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="11"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="B12" s="10">
+        <v>41945</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="11"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="B13" s="10">
+        <v>41946</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="2:5">
